--- a/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.363808916498499</v>
+        <v>1.134258211657226</v>
       </c>
       <c r="C2">
-        <v>0.2624855295129862</v>
+        <v>0.05518432994821154</v>
       </c>
       <c r="D2">
-        <v>0.1109215298304207</v>
+        <v>0.1000169013899139</v>
       </c>
       <c r="E2">
-        <v>0.01493095492790486</v>
+        <v>0.01790118797321139</v>
       </c>
       <c r="F2">
-        <v>7.375915415812045</v>
+        <v>7.827508642658245</v>
       </c>
       <c r="G2">
-        <v>0.0008619833458082781</v>
+        <v>0.0008944574947116271</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1524614829854727</v>
+        <v>0.1997521842651366</v>
       </c>
       <c r="K2">
-        <v>0.5391445493723026</v>
+        <v>0.9329940049286449</v>
       </c>
       <c r="L2">
-        <v>0.1396477431536027</v>
+        <v>0.08526330516623659</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.100511835903205</v>
+        <v>1.027589216241552</v>
       </c>
       <c r="C3">
-        <v>0.2240415037760073</v>
+        <v>0.04710055882755881</v>
       </c>
       <c r="D3">
-        <v>0.09691986922800311</v>
+        <v>0.08846214332650248</v>
       </c>
       <c r="E3">
-        <v>0.01517408746408289</v>
+        <v>0.01797569774332519</v>
       </c>
       <c r="F3">
-        <v>6.717849247762643</v>
+        <v>7.183293129131698</v>
       </c>
       <c r="G3">
-        <v>0.0008729984196493845</v>
+        <v>0.0009033544452101976</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1442168273390791</v>
+        <v>0.1879935789977836</v>
       </c>
       <c r="K3">
-        <v>0.4738247023106368</v>
+        <v>0.8328911436092312</v>
       </c>
       <c r="L3">
-        <v>0.1287525504233429</v>
+        <v>0.08033580948622188</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944714089193099</v>
+        <v>0.9647465215352327</v>
       </c>
       <c r="C4">
-        <v>0.2010959853269725</v>
+        <v>0.04226194126903948</v>
       </c>
       <c r="D4">
-        <v>0.08848969207125634</v>
+        <v>0.08145420973601603</v>
       </c>
       <c r="E4">
-        <v>0.01533487829543123</v>
+        <v>0.01805087235510427</v>
       </c>
       <c r="F4">
-        <v>6.323701036241431</v>
+        <v>6.794123308453266</v>
       </c>
       <c r="G4">
-        <v>0.0008799170014732928</v>
+        <v>0.0009089609617314815</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1392882334220715</v>
+        <v>0.1809035492825828</v>
       </c>
       <c r="K4">
-        <v>0.4350967554031726</v>
+        <v>0.7737628078484704</v>
       </c>
       <c r="L4">
-        <v>0.1224590233773881</v>
+        <v>0.07757273794944552</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.882547890161533</v>
+        <v>0.9397504416666038</v>
       </c>
       <c r="C5">
-        <v>0.1918877796583587</v>
+        <v>0.04031683251418627</v>
       </c>
       <c r="D5">
-        <v>0.08508905602684536</v>
+        <v>0.07861561146647489</v>
       </c>
       <c r="E5">
-        <v>0.01540328840962313</v>
+        <v>0.01808872648429904</v>
       </c>
       <c r="F5">
-        <v>6.165251212966183</v>
+        <v>6.636926107806914</v>
       </c>
       <c r="G5">
-        <v>0.0008827782059019907</v>
+        <v>0.0009112834877162673</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.137309102881872</v>
+        <v>0.1780430131059205</v>
       </c>
       <c r="K5">
-        <v>0.4196232226398706</v>
+        <v>0.7502026845365606</v>
       </c>
       <c r="L5">
-        <v>0.1199859400356473</v>
+        <v>0.07650865153326691</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872300944488728</v>
+        <v>0.9356353762270544</v>
       </c>
       <c r="C6">
-        <v>0.1903667163151681</v>
+        <v>0.03999532892085966</v>
       </c>
       <c r="D6">
-        <v>0.08452628181142074</v>
+        <v>0.07814517432356638</v>
       </c>
       <c r="E6">
-        <v>0.0154148220420629</v>
+        <v>0.01809544323532819</v>
       </c>
       <c r="F6">
-        <v>6.139062877664429</v>
+        <v>6.610901863704015</v>
       </c>
       <c r="G6">
-        <v>0.0008832559093849867</v>
+        <v>0.0009116714726479366</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1369821221033902</v>
+        <v>0.1775696480405031</v>
       </c>
       <c r="K6">
-        <v>0.4170714360310939</v>
+        <v>0.7463214262039628</v>
       </c>
       <c r="L6">
-        <v>0.1195805980045108</v>
+        <v>0.07633558522869777</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.943870529651349</v>
+        <v>0.9644070026644727</v>
       </c>
       <c r="C7">
-        <v>0.200971253453389</v>
+        <v>0.04223560682599725</v>
       </c>
       <c r="D7">
-        <v>0.08844369835870936</v>
+        <v>0.08141586364895659</v>
       </c>
       <c r="E7">
-        <v>0.01533578921781897</v>
+        <v>0.01805135386207457</v>
       </c>
       <c r="F7">
-        <v>6.321555749255225</v>
+        <v>6.791997921257575</v>
       </c>
       <c r="G7">
-        <v>0.0008799554158049241</v>
+        <v>0.0009089921288224751</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.139261428880161</v>
+        <v>0.1808648598249647</v>
       </c>
       <c r="K7">
-        <v>0.4348868729254676</v>
+        <v>0.7734429666096787</v>
       </c>
       <c r="L7">
-        <v>0.1224253097378565</v>
+        <v>0.07755814189782484</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.271709185212615</v>
+        <v>1.096894136495678</v>
       </c>
       <c r="C8">
-        <v>0.2490782483089617</v>
+        <v>0.05236815162023589</v>
       </c>
       <c r="D8">
-        <v>0.1060545348258017</v>
+        <v>0.0960119234284349</v>
       </c>
       <c r="E8">
-        <v>0.01501239395479592</v>
+        <v>0.01792065885685723</v>
       </c>
       <c r="F8">
-        <v>7.146753797980267</v>
+        <v>7.603925676337013</v>
       </c>
       <c r="G8">
-        <v>0.0008657508717941947</v>
+        <v>0.0008974963777069569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1495882637489956</v>
+        <v>0.1956684090679559</v>
       </c>
       <c r="K8">
-        <v>0.51631180826584</v>
+        <v>0.8979610967431881</v>
       </c>
       <c r="L8">
-        <v>0.1358037481053245</v>
+        <v>0.08350725470526044</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.968996558711979</v>
+        <v>1.380460558197825</v>
       </c>
       <c r="C9">
-        <v>0.3498577120060133</v>
+        <v>0.07346667788635841</v>
       </c>
       <c r="D9">
-        <v>0.1422821078155039</v>
+        <v>0.1255522731429153</v>
       </c>
       <c r="E9">
-        <v>0.01446997611341949</v>
+        <v>0.01790682529039689</v>
       </c>
       <c r="F9">
-        <v>8.860002283382727</v>
+        <v>9.25731326386574</v>
       </c>
       <c r="G9">
-        <v>0.0008389867614060852</v>
+        <v>0.0008760107128724642</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.171118564009781</v>
+        <v>0.2259240074924023</v>
       </c>
       <c r="K9">
-        <v>0.6888897255719044</v>
+        <v>1.16327935221392</v>
       </c>
       <c r="L9">
-        <v>0.1655952059273247</v>
+        <v>0.09746133493184317</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.527109460092788</v>
+        <v>1.607528429233696</v>
       </c>
       <c r="C10">
-        <v>0.4297938695265202</v>
+        <v>0.09009196355924587</v>
       </c>
       <c r="D10">
-        <v>0.1705208273642285</v>
+        <v>0.1481705197160892</v>
       </c>
       <c r="E10">
-        <v>0.01412833636783217</v>
+        <v>0.01805850692930466</v>
       </c>
       <c r="F10">
-        <v>10.20298935685665</v>
+        <v>10.52581528995441</v>
       </c>
       <c r="G10">
-        <v>0.0008197627753475246</v>
+        <v>0.0008607411381772562</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1880675129177121</v>
+        <v>0.2492049979548483</v>
       </c>
       <c r="K10">
-        <v>0.8267243938988713</v>
+        <v>1.375184842899358</v>
       </c>
       <c r="L10">
-        <v>0.1903188978312897</v>
+        <v>0.1094303570019122</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.794376336404184</v>
+        <v>1.715990756703548</v>
       </c>
       <c r="C11">
-        <v>0.4679746988167039</v>
+        <v>0.09799731001039902</v>
       </c>
       <c r="D11">
-        <v>0.1838777146073909</v>
+        <v>0.158749505584467</v>
       </c>
       <c r="E11">
-        <v>0.01398558443349263</v>
+        <v>0.01816626227970808</v>
       </c>
       <c r="F11">
-        <v>10.83928857878925</v>
+        <v>11.11876604448332</v>
       </c>
       <c r="G11">
-        <v>0.000811052632538694</v>
+        <v>0.0008538739456254163</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1961173730622932</v>
+        <v>0.2601024545855566</v>
       </c>
       <c r="K11">
-        <v>0.8926859182552533</v>
+        <v>1.476329598101046</v>
       </c>
       <c r="L11">
-        <v>0.2023629798956534</v>
+        <v>0.1153315568582798</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.89785106921596</v>
+        <v>1.75791127502572</v>
       </c>
       <c r="C12">
-        <v>0.4827485342606792</v>
+        <v>0.1010496453369285</v>
       </c>
       <c r="D12">
-        <v>0.1890248978178732</v>
+        <v>0.1628058184004999</v>
       </c>
       <c r="E12">
-        <v>0.01393338640843922</v>
+        <v>0.01821298541646499</v>
       </c>
       <c r="F12">
-        <v>11.08458907083394</v>
+        <v>11.34598839360564</v>
       </c>
       <c r="G12">
-        <v>0.0008077533723446821</v>
+        <v>0.0008512817783909754</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.199223862882647</v>
+        <v>0.2642805726066868</v>
       </c>
       <c r="K12">
-        <v>0.9182192065622701</v>
+        <v>1.515415217193834</v>
       </c>
       <c r="L12">
-        <v>0.2070566214339635</v>
+        <v>0.1176398756492247</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.875459031569562</v>
+        <v>1.748843394336518</v>
       </c>
       <c r="C13">
-        <v>0.4795517200282973</v>
+        <v>0.1003894912157506</v>
       </c>
       <c r="D13">
-        <v>0.1879121125247565</v>
+        <v>0.1619298339286388</v>
       </c>
       <c r="E13">
-        <v>0.01394454478066365</v>
+        <v>0.01820265354511541</v>
       </c>
       <c r="F13">
-        <v>11.03155345012635</v>
+        <v>11.29692570820805</v>
       </c>
       <c r="G13">
-        <v>0.0008084640731752762</v>
+        <v>0.0008518397322497189</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1985520716088871</v>
+        <v>0.2633783228421649</v>
       </c>
       <c r="K13">
-        <v>0.9126939313962765</v>
+        <v>1.506960783218517</v>
       </c>
       <c r="L13">
-        <v>0.2060395314669989</v>
+        <v>0.1171393222233021</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.802841665212497</v>
+        <v>1.719421932323741</v>
       </c>
       <c r="C14">
-        <v>0.4691834809760849</v>
+        <v>0.09824719067005105</v>
       </c>
       <c r="D14">
-        <v>0.184299288760954</v>
+        <v>0.1590821600303229</v>
       </c>
       <c r="E14">
-        <v>0.0139812525552756</v>
+        <v>0.01816998546652826</v>
       </c>
       <c r="F14">
-        <v>10.85937803720185</v>
+        <v>11.13740349729676</v>
       </c>
       <c r="G14">
-        <v>0.0008107812563263886</v>
+        <v>0.0008536605393582978</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1963717207677433</v>
+        <v>0.2604451134497339</v>
       </c>
       <c r="K14">
-        <v>0.8947748842989398</v>
+        <v>1.479528846421118</v>
       </c>
       <c r="L14">
-        <v>0.2027463515201902</v>
+        <v>0.1155199374744313</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.758667780460826</v>
+        <v>1.701514252079164</v>
       </c>
       <c r="C15">
-        <v>0.462875508131134</v>
+        <v>0.09694292632944723</v>
       </c>
       <c r="D15">
-        <v>0.1820984609903462</v>
+        <v>0.1573446993295278</v>
       </c>
       <c r="E15">
-        <v>0.01400398054580165</v>
+        <v>0.01815075710160663</v>
       </c>
       <c r="F15">
-        <v>10.75450458180791</v>
+        <v>11.0400538426602</v>
       </c>
       <c r="G15">
-        <v>0.0008122002852530531</v>
+        <v>0.0008547768180129132</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1950440733966587</v>
+        <v>0.2586553777291911</v>
       </c>
       <c r="K15">
-        <v>0.8838740565192751</v>
+        <v>1.462831378412176</v>
       </c>
       <c r="L15">
-        <v>0.2007470724307154</v>
+        <v>0.1145378672694406</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.50994015279116</v>
+        <v>1.600552822931775</v>
       </c>
       <c r="C16">
-        <v>0.4273396573300943</v>
+        <v>0.08958300416053078</v>
       </c>
       <c r="D16">
-        <v>0.1696594930955371</v>
+        <v>0.1474857016104636</v>
       </c>
       <c r="E16">
-        <v>0.01413792336897846</v>
+        <v>0.01805227327320402</v>
       </c>
       <c r="F16">
-        <v>10.16197344679844</v>
+        <v>10.48741746816032</v>
       </c>
       <c r="G16">
-        <v>0.0008203322203255025</v>
+        <v>0.0008611912613366358</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1875490349976516</v>
+        <v>0.2484996066409622</v>
       </c>
       <c r="K16">
-        <v>0.8224862995777187</v>
+        <v>1.368678712662842</v>
       </c>
       <c r="L16">
-        <v>0.1895493142387892</v>
+        <v>0.1090545465580561</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.361006690520924</v>
+        <v>1.540010421277657</v>
       </c>
       <c r="C17">
-        <v>0.4060407652644642</v>
+        <v>0.08516199383242906</v>
       </c>
       <c r="D17">
-        <v>0.1621698761194637</v>
+        <v>0.1415175525426093</v>
       </c>
       <c r="E17">
-        <v>0.01422336002729008</v>
+        <v>0.01800201521640776</v>
       </c>
       <c r="F17">
-        <v>9.805435508331726</v>
+        <v>10.15273396808169</v>
       </c>
       <c r="G17">
-        <v>0.0008253259137419651</v>
+        <v>0.0008651444816611213</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1830442560986896</v>
+        <v>0.2423529144915975</v>
       </c>
       <c r="K17">
-        <v>0.7857187904089642</v>
+        <v>1.312203281983471</v>
       </c>
       <c r="L17">
-        <v>0.1828960199907499</v>
+        <v>0.1058129958931175</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.276579763019811</v>
+        <v>1.505667427573655</v>
       </c>
       <c r="C18">
-        <v>0.3939575250062433</v>
+        <v>0.08265073383627453</v>
       </c>
       <c r="D18">
-        <v>0.1579090600814652</v>
+        <v>0.1381115377239013</v>
       </c>
       <c r="E18">
-        <v>0.01427368988023048</v>
+        <v>0.01797673278533285</v>
       </c>
       <c r="F18">
-        <v>9.602704083627543</v>
+        <v>9.961703163341042</v>
       </c>
       <c r="G18">
-        <v>0.0008282018503869004</v>
+        <v>0.0008674259114955259</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1804845607464642</v>
+        <v>0.2388458873471464</v>
       </c>
       <c r="K18">
-        <v>0.7648719762858462</v>
+        <v>1.280160183808249</v>
       </c>
       <c r="L18">
-        <v>0.1791430004835419</v>
+        <v>0.1039909642025947</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.248196951755688</v>
+        <v>1.494118835461819</v>
       </c>
       <c r="C19">
-        <v>0.3898935823269767</v>
+        <v>0.08180562096555377</v>
       </c>
       <c r="D19">
-        <v>0.1564740566001035</v>
+        <v>0.1369626614072672</v>
       </c>
       <c r="E19">
-        <v>0.01429093390281855</v>
+        <v>0.01796878529090407</v>
       </c>
       <c r="F19">
-        <v>9.534445035537374</v>
+        <v>9.897264605210097</v>
       </c>
       <c r="G19">
-        <v>0.0008291763939283346</v>
+        <v>0.0008681997644372271</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1796230132029208</v>
+        <v>0.2376631339234052</v>
       </c>
       <c r="K19">
-        <v>0.757862881966858</v>
+        <v>1.269383644831095</v>
       </c>
       <c r="L19">
-        <v>0.1778844590607349</v>
+        <v>0.1033811140286431</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.376730724530887</v>
+        <v>1.54640493039372</v>
       </c>
       <c r="C20">
-        <v>0.4082903888200065</v>
+        <v>0.08562928395542713</v>
       </c>
       <c r="D20">
-        <v>0.1629621869603852</v>
+        <v>0.1421500492105991</v>
       </c>
       <c r="E20">
-        <v>0.0142141418530386</v>
+        <v>0.01800698776572141</v>
       </c>
       <c r="F20">
-        <v>9.843142711021272</v>
+        <v>10.18820670231577</v>
       </c>
       <c r="G20">
-        <v>0.0008247939841540236</v>
+        <v>0.0008647228849835312</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1835204916852433</v>
+        <v>0.2430042518759237</v>
       </c>
       <c r="K20">
-        <v>0.7896010349091966</v>
+        <v>1.318168948646075</v>
       </c>
       <c r="L20">
-        <v>0.183596516646432</v>
+        <v>0.1061536191313692</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.824106606045234</v>
+        <v>1.728039802422046</v>
       </c>
       <c r="C21">
-        <v>0.4722198385730394</v>
+        <v>0.09887475919809674</v>
       </c>
       <c r="D21">
-        <v>0.1853579026556957</v>
+        <v>0.1599171523160408</v>
       </c>
       <c r="E21">
-        <v>0.01397041977998859</v>
+        <v>0.01817941727131078</v>
       </c>
       <c r="F21">
-        <v>10.90982597443201</v>
+        <v>11.18418275059025</v>
       </c>
       <c r="G21">
-        <v>0.0008101007207309909</v>
+        <v>0.0008531255256795205</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1970104814747344</v>
+        <v>0.2613052074305244</v>
       </c>
       <c r="K21">
-        <v>0.9000223150137714</v>
+        <v>1.48756410807286</v>
       </c>
       <c r="L21">
-        <v>0.2037098733036515</v>
+        <v>0.1159935214742731</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.129908224050382</v>
+        <v>1.851751894510869</v>
       </c>
       <c r="C22">
-        <v>0.515873529594046</v>
+        <v>0.1078793337544113</v>
       </c>
       <c r="D22">
-        <v>0.2005241652583578</v>
+        <v>0.1718268643952143</v>
       </c>
       <c r="E22">
-        <v>0.01382199524382655</v>
+        <v>0.01832680120672769</v>
       </c>
       <c r="F22">
-        <v>11.63272117340307</v>
+        <v>11.85098225353181</v>
       </c>
       <c r="G22">
-        <v>0.0008004889571970728</v>
+        <v>0.0008455925819754165</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2061716229429749</v>
+        <v>0.2735701700946649</v>
       </c>
       <c r="K22">
-        <v>0.9754760642910583</v>
+        <v>1.602902574911525</v>
       </c>
       <c r="L22">
-        <v>0.2176400797799687</v>
+        <v>0.1228583703838027</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.965339253100751</v>
+        <v>1.785228143759724</v>
       </c>
       <c r="C23">
-        <v>0.4923828603596121</v>
+        <v>0.1030380818361749</v>
       </c>
       <c r="D23">
-        <v>0.1923752870663265</v>
+        <v>0.1654400353570509</v>
       </c>
       <c r="E23">
-        <v>0.01390020275499815</v>
+        <v>0.01824483927255649</v>
       </c>
       <c r="F23">
-        <v>11.24427877130194</v>
+        <v>11.49350145616114</v>
       </c>
       <c r="G23">
-        <v>0.0008056219803296974</v>
+        <v>0.000849609911007702</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2012471058610572</v>
+        <v>0.2669936061001934</v>
       </c>
       <c r="K23">
-        <v>0.9348715937200893</v>
+        <v>1.540883463764089</v>
       </c>
       <c r="L23">
-        <v>0.2101265753532005</v>
+        <v>0.1191518241733931</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.369618185765205</v>
+        <v>1.543512536446428</v>
       </c>
       <c r="C24">
-        <v>0.4072728340744618</v>
+        <v>0.08541792798484948</v>
       </c>
       <c r="D24">
-        <v>0.1626038440151802</v>
+        <v>0.14186401975563</v>
       </c>
       <c r="E24">
-        <v>0.01421830561973492</v>
+        <v>0.01800472845253331</v>
       </c>
       <c r="F24">
-        <v>9.826088337154971</v>
+        <v>10.17216520024857</v>
       </c>
       <c r="G24">
-        <v>0.0008250344535742422</v>
+        <v>0.00086491346174638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1833050923113504</v>
+        <v>0.2427096993500513</v>
       </c>
       <c r="K24">
-        <v>0.7878449711025581</v>
+        <v>1.315470553284911</v>
       </c>
       <c r="L24">
-        <v>0.1832795990256955</v>
+        <v>0.1059994944489517</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.773340374603947</v>
+        <v>1.30079547622779</v>
       </c>
       <c r="C25">
-        <v>0.3217190986576384</v>
+        <v>0.06759145652873855</v>
       </c>
       <c r="D25">
-        <v>0.1322442678501687</v>
+        <v>0.1174281706334881</v>
       </c>
       <c r="E25">
-        <v>0.01460681229476712</v>
+        <v>0.01788325685296055</v>
       </c>
       <c r="F25">
-        <v>8.383846283523383</v>
+        <v>8.801884932253159</v>
       </c>
       <c r="G25">
-        <v>0.0008461318366205496</v>
+        <v>0.000881722429811053</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1651237467595976</v>
+        <v>0.2175783258775397</v>
       </c>
       <c r="K25">
-        <v>0.6405210321936892</v>
+        <v>1.088846971883981</v>
       </c>
       <c r="L25">
-        <v>0.1570919389185121</v>
+        <v>0.09341044427137746</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.134258211657226</v>
+        <v>3.869090591705742</v>
       </c>
       <c r="C2">
-        <v>0.05518432994821154</v>
+        <v>1.104745911581944</v>
       </c>
       <c r="D2">
-        <v>0.1000169013899139</v>
+        <v>0.3278482989888687</v>
       </c>
       <c r="E2">
-        <v>0.01790118797321139</v>
+        <v>1.498654169906317</v>
       </c>
       <c r="F2">
-        <v>7.827508642658245</v>
+        <v>6.635873520255558</v>
       </c>
       <c r="G2">
-        <v>0.0008944574947116271</v>
+        <v>0.0007437127231291205</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1997521842651366</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9329940049286449</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08526330516623659</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.027589216241552</v>
+        <v>3.292915343289508</v>
       </c>
       <c r="C3">
-        <v>0.04710055882755881</v>
+        <v>0.9385230912519091</v>
       </c>
       <c r="D3">
-        <v>0.08846214332650248</v>
+        <v>0.2856247266611547</v>
       </c>
       <c r="E3">
-        <v>0.01797569774332519</v>
+        <v>1.26642903220683</v>
       </c>
       <c r="F3">
-        <v>7.183293129131698</v>
+        <v>5.740628530079618</v>
       </c>
       <c r="G3">
-        <v>0.0009033544452101976</v>
+        <v>0.000757803057901766</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1879935789977836</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8328911436092312</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08033580948622188</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9647465215352327</v>
+        <v>2.951327824156692</v>
       </c>
       <c r="C4">
-        <v>0.04226194126903948</v>
+        <v>0.8401863449115581</v>
       </c>
       <c r="D4">
-        <v>0.08145420973601603</v>
+        <v>0.2607697280726882</v>
       </c>
       <c r="E4">
-        <v>0.01805087235510427</v>
+        <v>1.130126361199331</v>
       </c>
       <c r="F4">
-        <v>6.794123308453266</v>
+        <v>5.211660616999353</v>
       </c>
       <c r="G4">
-        <v>0.0009089609617314815</v>
+        <v>0.0007665192320742595</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1809035492825828</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7737628078484704</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07757273794944552</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397504416666038</v>
+        <v>2.814651053569776</v>
       </c>
       <c r="C5">
-        <v>0.04031683251418627</v>
+        <v>0.8008737998413835</v>
       </c>
       <c r="D5">
-        <v>0.07861561146647489</v>
+        <v>0.2508628126613104</v>
       </c>
       <c r="E5">
-        <v>0.01808872648429904</v>
+        <v>1.075863128695488</v>
       </c>
       <c r="F5">
-        <v>6.636926107806914</v>
+        <v>5.000427111763315</v>
       </c>
       <c r="G5">
-        <v>0.0009112834877162673</v>
+        <v>0.0007700955535800399</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1780430131059205</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7502026845365606</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07650865153326691</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9356353762270544</v>
+        <v>2.792094130573673</v>
       </c>
       <c r="C6">
-        <v>0.03999532892085966</v>
+        <v>0.7943873037310141</v>
       </c>
       <c r="D6">
-        <v>0.07814517432356638</v>
+        <v>0.2492299167691385</v>
       </c>
       <c r="E6">
-        <v>0.01809544323532819</v>
+        <v>1.066922367830301</v>
       </c>
       <c r="F6">
-        <v>6.610901863704015</v>
+        <v>4.965589858726418</v>
       </c>
       <c r="G6">
-        <v>0.0009116714726479366</v>
+        <v>0.0007706910880035404</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1775696480405031</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7463214262039628</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07633558522869777</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9644070026644727</v>
+        <v>2.949474991803129</v>
       </c>
       <c r="C7">
-        <v>0.04223560682599725</v>
+        <v>0.8396532948888478</v>
       </c>
       <c r="D7">
-        <v>0.08141586364895659</v>
+        <v>0.2606352797066194</v>
       </c>
       <c r="E7">
-        <v>0.01805135386207457</v>
+        <v>1.12938971838085</v>
       </c>
       <c r="F7">
-        <v>6.791997921257575</v>
+        <v>5.208795406155929</v>
       </c>
       <c r="G7">
-        <v>0.0009089921288224751</v>
+        <v>0.0007665673549488928</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1808648598249647</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7734429666096787</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07755814189782484</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.096894136495678</v>
+        <v>3.6675410122877</v>
       </c>
       <c r="C8">
-        <v>0.05236815162023589</v>
+        <v>1.046543339692192</v>
       </c>
       <c r="D8">
-        <v>0.0960119234284349</v>
+        <v>0.3130363585852933</v>
       </c>
       <c r="E8">
-        <v>0.01792065885685723</v>
+        <v>1.41708081146524</v>
       </c>
       <c r="F8">
-        <v>7.603925676337013</v>
+        <v>6.322315476670298</v>
       </c>
       <c r="G8">
-        <v>0.0008974963777069569</v>
+        <v>0.0007485629914414371</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1956684090679559</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8979610967431881</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08350725470526044</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.380460558197825</v>
+        <v>5.202712292611295</v>
       </c>
       <c r="C9">
-        <v>0.07346667788635841</v>
+        <v>1.491766529190727</v>
       </c>
       <c r="D9">
-        <v>0.1255522731429153</v>
+        <v>0.4269393464070106</v>
       </c>
       <c r="E9">
-        <v>0.01790682529039689</v>
+        <v>2.048269869643008</v>
       </c>
       <c r="F9">
-        <v>9.25731326386574</v>
+        <v>8.719465186564719</v>
       </c>
       <c r="G9">
-        <v>0.0008760107128724642</v>
+        <v>0.0007133136491433303</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2259240074924023</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.16327935221392</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09746133493184317</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.607528429233696</v>
+        <v>6.463671731928628</v>
       </c>
       <c r="C10">
-        <v>0.09009196355924587</v>
+        <v>1.861408775469329</v>
       </c>
       <c r="D10">
-        <v>0.1481705197160892</v>
+        <v>0.5222620816065842</v>
       </c>
       <c r="E10">
-        <v>0.01805850692930466</v>
+        <v>2.585351906101806</v>
       </c>
       <c r="F10">
-        <v>10.52581528995441</v>
+        <v>10.7001295017497</v>
       </c>
       <c r="G10">
-        <v>0.0008607411381772562</v>
+        <v>0.0006866164722787164</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2492049979548483</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.375184842899358</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1094303570019122</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.715990756703548</v>
+        <v>7.08447099076642</v>
       </c>
       <c r="C11">
-        <v>0.09799731001039902</v>
+        <v>2.044950820287738</v>
       </c>
       <c r="D11">
-        <v>0.158749505584467</v>
+        <v>0.5697417279156696</v>
       </c>
       <c r="E11">
-        <v>0.01816626227970808</v>
+        <v>2.856771504377136</v>
       </c>
       <c r="F11">
-        <v>11.11876604448332</v>
+        <v>11.67785285994654</v>
       </c>
       <c r="G11">
-        <v>0.0008538739456254163</v>
+        <v>0.0006740234843875903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2601024545855566</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.476329598101046</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1153315568582798</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.75791127502572</v>
+        <v>7.328571152713948</v>
       </c>
       <c r="C12">
-        <v>0.1010496453369285</v>
+        <v>2.117427780801279</v>
       </c>
       <c r="D12">
-        <v>0.1628058184004999</v>
+        <v>0.5885073197268582</v>
       </c>
       <c r="E12">
-        <v>0.01821298541646499</v>
+        <v>2.964870090642748</v>
       </c>
       <c r="F12">
-        <v>11.34598839360564</v>
+        <v>12.06264309303924</v>
       </c>
       <c r="G12">
-        <v>0.0008512817783909754</v>
+        <v>0.0006691567471939022</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2642805726066868</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.515415217193834</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1176398756492247</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.748843394336518</v>
+        <v>7.275554054881241</v>
       </c>
       <c r="C13">
-        <v>0.1003894912157506</v>
+        <v>2.101670983166912</v>
       </c>
       <c r="D13">
-        <v>0.1619298339286388</v>
+        <v>0.58442696306318</v>
       </c>
       <c r="E13">
-        <v>0.01820265354511541</v>
+        <v>2.941323476956214</v>
       </c>
       <c r="F13">
-        <v>11.29692570820805</v>
+        <v>11.97905445325648</v>
       </c>
       <c r="G13">
-        <v>0.0008518397322497189</v>
+        <v>0.0006702099212943329</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2633783228421649</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.506960783218517</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1171393222233021</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.719421932323741</v>
+        <v>7.104356758336053</v>
       </c>
       <c r="C14">
-        <v>0.09824719067005105</v>
+        <v>2.05084853859745</v>
       </c>
       <c r="D14">
-        <v>0.1590821600303229</v>
+        <v>0.571268457492522</v>
       </c>
       <c r="E14">
-        <v>0.01816998546652826</v>
+        <v>2.86554799980604</v>
       </c>
       <c r="F14">
-        <v>11.13740349729676</v>
+        <v>11.70919345391218</v>
       </c>
       <c r="G14">
-        <v>0.0008536605393582978</v>
+        <v>0.0006736252978828791</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2604451134497339</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.479528846421118</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1155199374744313</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.701514252079164</v>
+        <v>7.00074807254731</v>
       </c>
       <c r="C15">
-        <v>0.09694292632944723</v>
+        <v>2.020133084844645</v>
       </c>
       <c r="D15">
-        <v>0.1573446993295278</v>
+        <v>0.5633178486194481</v>
       </c>
       <c r="E15">
-        <v>0.01815075710160663</v>
+        <v>2.819877994524219</v>
       </c>
       <c r="F15">
-        <v>11.0400538426602</v>
+        <v>11.54591643366126</v>
       </c>
       <c r="G15">
-        <v>0.0008547768180129132</v>
+        <v>0.000675703335704542</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2586553777291911</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.462831378412176</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1145378672694406</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600552822931775</v>
+        <v>6.424223654653986</v>
       </c>
       <c r="C16">
-        <v>0.08958300416053078</v>
+        <v>1.849782383921365</v>
       </c>
       <c r="D16">
-        <v>0.1474857016104636</v>
+        <v>0.5192570740193219</v>
       </c>
       <c r="E16">
-        <v>0.01805227327320402</v>
+        <v>2.568268379124916</v>
       </c>
       <c r="F16">
-        <v>10.48741746816032</v>
+        <v>10.63804998064421</v>
       </c>
       <c r="G16">
-        <v>0.0008611912613366358</v>
+        <v>0.0006874278300959101</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2484996066409622</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.368678712662842</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1090545465580561</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.540010421277657</v>
+        <v>6.083985265651677</v>
       </c>
       <c r="C17">
-        <v>0.08516199383242906</v>
+        <v>1.74967925505041</v>
       </c>
       <c r="D17">
-        <v>0.1415175525426093</v>
+        <v>0.4933995490309258</v>
       </c>
       <c r="E17">
-        <v>0.01800201521640776</v>
+        <v>2.421703187807424</v>
       </c>
       <c r="F17">
-        <v>10.15273396808169</v>
+        <v>10.10289414216493</v>
       </c>
       <c r="G17">
-        <v>0.0008651444816611213</v>
+        <v>0.0006944852374395349</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2423529144915975</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.312203281983471</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1058129958931175</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.505667427573655</v>
+        <v>5.892560823670976</v>
       </c>
       <c r="C18">
-        <v>0.08265073383627453</v>
+        <v>1.693493160134778</v>
       </c>
       <c r="D18">
-        <v>0.1381115377239013</v>
+        <v>0.4788997599790434</v>
       </c>
       <c r="E18">
-        <v>0.01797673278533285</v>
+        <v>2.339843746202689</v>
       </c>
       <c r="F18">
-        <v>9.961703163341042</v>
+        <v>9.802041018714419</v>
       </c>
       <c r="G18">
-        <v>0.0008674259114955259</v>
+        <v>0.0006985048257280441</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2388458873471464</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.280160183808249</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1039909642025947</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.494118835461819</v>
+        <v>5.828425562121311</v>
       </c>
       <c r="C19">
-        <v>0.08180562096555377</v>
+        <v>1.674689419313893</v>
       </c>
       <c r="D19">
-        <v>0.1369626614072672</v>
+        <v>0.4740495448535285</v>
       </c>
       <c r="E19">
-        <v>0.01796878529090407</v>
+        <v>2.312511968272219</v>
       </c>
       <c r="F19">
-        <v>9.897264605210097</v>
+        <v>9.701283292199292</v>
       </c>
       <c r="G19">
-        <v>0.0008681997644372271</v>
+        <v>0.0006998598190865405</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2376631339234052</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.269383644831095</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1033811140286431</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.54640493039372</v>
+        <v>6.119748412428692</v>
       </c>
       <c r="C20">
-        <v>0.08562928395542713</v>
+        <v>1.760186838715697</v>
       </c>
       <c r="D20">
-        <v>0.1421500492105991</v>
+        <v>0.4961123540601022</v>
       </c>
       <c r="E20">
-        <v>0.01800698776572141</v>
+        <v>2.437044104630658</v>
       </c>
       <c r="F20">
-        <v>10.18820670231577</v>
+        <v>10.15912097007671</v>
       </c>
       <c r="G20">
-        <v>0.0008647228849835312</v>
+        <v>0.0006937382734403594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2430042518759237</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.318168948646075</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1061536191313692</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728039802422046</v>
+        <v>7.154374863364637</v>
       </c>
       <c r="C21">
-        <v>0.09887475919809674</v>
+        <v>2.065688090290337</v>
       </c>
       <c r="D21">
-        <v>0.1599171523160408</v>
+        <v>0.5751101848300664</v>
       </c>
       <c r="E21">
-        <v>0.01817941727131078</v>
+        <v>2.887646484235404</v>
       </c>
       <c r="F21">
-        <v>11.18418275059025</v>
+        <v>11.78802886964667</v>
       </c>
       <c r="G21">
-        <v>0.0008531255256795205</v>
+        <v>0.0006726251112156297</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2613052074305244</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.48756410807286</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1159935214742731</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.851751894510869</v>
+        <v>7.884855886698745</v>
       </c>
       <c r="C22">
-        <v>0.1078793337544113</v>
+        <v>2.283282165834066</v>
       </c>
       <c r="D22">
-        <v>0.1718268643952143</v>
+        <v>0.6314726412728078</v>
       </c>
       <c r="E22">
-        <v>0.01832680120672769</v>
+        <v>3.214297175114268</v>
       </c>
       <c r="F22">
-        <v>11.85098225353181</v>
+        <v>12.94011826465407</v>
       </c>
       <c r="G22">
-        <v>0.0008455925819754165</v>
+        <v>0.0006582287118990811</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2735701700946649</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.602902574911525</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1228583703838027</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.785228143759724</v>
+        <v>7.489036152901463</v>
       </c>
       <c r="C23">
-        <v>0.1030380818361749</v>
+        <v>2.165170641705231</v>
       </c>
       <c r="D23">
-        <v>0.1654400353570509</v>
+        <v>0.600872616121336</v>
       </c>
       <c r="E23">
-        <v>0.01824483927255649</v>
+        <v>3.03637255775223</v>
       </c>
       <c r="F23">
-        <v>11.49350145616114</v>
+        <v>12.31568343274768</v>
       </c>
       <c r="G23">
-        <v>0.000849609911007702</v>
+        <v>0.0006659818291808603</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2669936061001934</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.540883463764089</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1191518241733931</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.543512536446428</v>
+        <v>6.103567020224034</v>
       </c>
       <c r="C24">
-        <v>0.08541792798484948</v>
+        <v>1.755432162945965</v>
       </c>
       <c r="D24">
-        <v>0.14186401975563</v>
+        <v>0.4948847683158704</v>
       </c>
       <c r="E24">
-        <v>0.01800472845253331</v>
+        <v>2.430101090143168</v>
       </c>
       <c r="F24">
-        <v>10.17216520024857</v>
+        <v>10.13367983991688</v>
       </c>
       <c r="G24">
-        <v>0.00086491346174638</v>
+        <v>0.0006940760912558396</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2427096993500513</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.315470553284911</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1059994944489517</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.30079547622779</v>
+        <v>4.76892253653881</v>
       </c>
       <c r="C25">
-        <v>0.06759145652873855</v>
+        <v>1.365482018976479</v>
       </c>
       <c r="D25">
-        <v>0.1174281706334881</v>
+        <v>0.3945066067678624</v>
       </c>
       <c r="E25">
-        <v>0.01788325685296055</v>
+        <v>1.867542477264166</v>
       </c>
       <c r="F25">
-        <v>8.801884932253159</v>
+        <v>8.040232194133921</v>
       </c>
       <c r="G25">
-        <v>0.000881722429811053</v>
+        <v>0.0007229166982805069</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2175783258775397</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.088846971883981</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09341044427137746</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705742</v>
+        <v>3.561199485164707</v>
       </c>
       <c r="C2">
-        <v>1.104745911581944</v>
+        <v>1.131335744603518</v>
       </c>
       <c r="D2">
-        <v>0.3278482989888687</v>
+        <v>0.3272058143757022</v>
       </c>
       <c r="E2">
-        <v>1.498654169906317</v>
+        <v>1.436183048966086</v>
       </c>
       <c r="F2">
-        <v>6.635873520255558</v>
+        <v>6.405297017943781</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231291205</v>
+        <v>0.0007713180869450032</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01601131403344169</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289508</v>
+        <v>3.071506588738714</v>
       </c>
       <c r="C3">
-        <v>0.9385230912519091</v>
+        <v>0.9646822993376247</v>
       </c>
       <c r="D3">
-        <v>0.2856247266611547</v>
+        <v>0.2866138001505192</v>
       </c>
       <c r="E3">
-        <v>1.26642903220683</v>
+        <v>1.222027604918125</v>
       </c>
       <c r="F3">
-        <v>5.740628530079618</v>
+        <v>5.578053483066554</v>
       </c>
       <c r="G3">
-        <v>0.000757803057901766</v>
+        <v>0.0007816769345099788</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007348635646546864</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156692</v>
+        <v>2.775483215346242</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115581</v>
+        <v>0.8660607651034411</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726882</v>
+        <v>0.2618416486247384</v>
       </c>
       <c r="E4">
-        <v>1.130126361199331</v>
+        <v>1.094832924222345</v>
       </c>
       <c r="F4">
-        <v>5.211660616999353</v>
+        <v>5.076956079076723</v>
       </c>
       <c r="G4">
-        <v>0.0007665192320742595</v>
+        <v>0.0007881485695562582</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003726303407598497</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569776</v>
+        <v>2.65570097568434</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>0.8281275244993935</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613104</v>
+        <v>0.2505602322928127</v>
       </c>
       <c r="E5">
-        <v>1.075863128695488</v>
+        <v>1.04385587912536</v>
       </c>
       <c r="F5">
-        <v>5.000427111763315</v>
+        <v>4.860248983856451</v>
       </c>
       <c r="G5">
-        <v>0.0007700955535800399</v>
+        <v>0.0007908441093387262</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002676820063274743</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573673</v>
+        <v>2.635720242914886</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.8236658989711998</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691385</v>
+        <v>0.2472206728752013</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>1.035392538823046</v>
       </c>
       <c r="F6">
-        <v>4.965589858726418</v>
+        <v>4.80748441341953</v>
       </c>
       <c r="G6">
-        <v>0.0007706910880035404</v>
+        <v>0.0007913262357239685</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002591415817410514</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991803129</v>
+        <v>2.773436328899606</v>
       </c>
       <c r="C7">
-        <v>0.8396532948888478</v>
+        <v>0.8704354876643663</v>
       </c>
       <c r="D7">
-        <v>0.2606352797066194</v>
+        <v>0.2576467765303789</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.0940015791695</v>
       </c>
       <c r="F7">
-        <v>5.208795406155929</v>
+        <v>5.027677241279235</v>
       </c>
       <c r="G7">
-        <v>0.0007665673549488928</v>
+        <v>0.0007882737111831508</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003865628744913252</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6675410122877</v>
+        <v>3.390521120389167</v>
       </c>
       <c r="C8">
-        <v>1.046543339692192</v>
+        <v>1.079460385854674</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852933</v>
+        <v>0.3076638459239973</v>
       </c>
       <c r="E8">
-        <v>1.41708081146524</v>
+        <v>1.361090099067027</v>
       </c>
       <c r="F8">
-        <v>6.322315476670298</v>
+        <v>6.055556295509348</v>
       </c>
       <c r="G8">
-        <v>0.0007485629914414371</v>
+        <v>0.0007749873113326932</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01275081457719374</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611295</v>
+        <v>4.649221415064062</v>
       </c>
       <c r="C9">
-        <v>1.491766529190727</v>
+        <v>1.517294537216003</v>
       </c>
       <c r="D9">
-        <v>0.4269393464070106</v>
+        <v>0.4156362664667341</v>
       </c>
       <c r="E9">
-        <v>2.048269869643008</v>
+        <v>1.929294387883985</v>
       </c>
       <c r="F9">
-        <v>8.719465186564719</v>
+        <v>8.233950683435438</v>
       </c>
       <c r="G9">
-        <v>0.0007133136491433303</v>
+        <v>0.0007494635396381293</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.04612328964684753</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928628</v>
+        <v>5.620342429586174</v>
       </c>
       <c r="C10">
-        <v>1.861408775469329</v>
+        <v>1.875937575691751</v>
       </c>
       <c r="D10">
-        <v>0.5222620816065842</v>
+        <v>0.496226653050428</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.390749484177718</v>
       </c>
       <c r="F10">
-        <v>10.7001295017497</v>
+        <v>9.895080511001879</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722787164</v>
+        <v>0.0007308558390643419</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.08474693637203234</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>6.075347438737538</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>2.057794817274782</v>
       </c>
       <c r="D11">
-        <v>0.5697417279156696</v>
+        <v>0.526657997182042</v>
       </c>
       <c r="E11">
-        <v>2.856771504377136</v>
+        <v>2.614664196702321</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>10.59481539722356</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843875903</v>
+        <v>0.0007224776666660105</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1064030167786774</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152713948</v>
+        <v>6.251323327833745</v>
       </c>
       <c r="C12">
-        <v>2.117427780801279</v>
+        <v>2.124516395065143</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268582</v>
+        <v>0.5423630871074749</v>
       </c>
       <c r="E12">
-        <v>2.964870090642748</v>
+        <v>2.702485837156217</v>
       </c>
       <c r="F12">
-        <v>12.06264309303924</v>
+        <v>10.90976758267954</v>
       </c>
       <c r="G12">
-        <v>0.0006691567471939022</v>
+        <v>0.0007192029320520992</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1154365237719013</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881241</v>
+        <v>6.213504236398308</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>2.109231376710341</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.5397710041791299</v>
       </c>
       <c r="E13">
-        <v>2.941323476956214</v>
+        <v>2.683520384021634</v>
       </c>
       <c r="F13">
-        <v>11.97905445325648</v>
+        <v>10.85077299957851</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212943329</v>
+        <v>0.0007198924825897583</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1134751792139381</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758336053</v>
+        <v>6.089854279141548</v>
       </c>
       <c r="C14">
-        <v>2.05084853859745</v>
+        <v>2.062892181775283</v>
       </c>
       <c r="D14">
-        <v>0.571268457492522</v>
+        <v>0.5282837942756657</v>
       </c>
       <c r="E14">
-        <v>2.86554799980604</v>
+        <v>2.621863914992659</v>
       </c>
       <c r="F14">
-        <v>11.70919345391218</v>
+        <v>10.62445796973242</v>
       </c>
       <c r="G14">
-        <v>0.0006736252978828791</v>
+        <v>0.0007222016240711947</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1071376617148729</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.00074807254731</v>
+        <v>6.014094897484256</v>
       </c>
       <c r="C15">
-        <v>2.020133084844645</v>
+        <v>2.036405615086665</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194481</v>
+        <v>0.5197193431364724</v>
       </c>
       <c r="E15">
-        <v>2.819877994524219</v>
+        <v>2.58432297646803</v>
       </c>
       <c r="F15">
-        <v>11.54591643366126</v>
+        <v>10.46883035729957</v>
       </c>
       <c r="G15">
-        <v>0.000675703335704542</v>
+        <v>0.0007236457858287432</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.103330548558306</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654653986</v>
+        <v>5.587877026056503</v>
       </c>
       <c r="C16">
-        <v>1.849782383921365</v>
+        <v>1.878088532930235</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.4812138137317845</v>
       </c>
       <c r="E16">
-        <v>2.568268379124916</v>
+        <v>2.375354256294059</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>9.701852043685335</v>
       </c>
       <c r="G16">
-        <v>0.0006874278300959101</v>
+        <v>0.0007316739736751248</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08321890174699842</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651677</v>
+        <v>5.33071736015421</v>
       </c>
       <c r="C17">
-        <v>1.74967925505041</v>
+        <v>1.784001158371666</v>
       </c>
       <c r="D17">
-        <v>0.4933995490309258</v>
+        <v>0.4580626408969124</v>
       </c>
       <c r="E17">
-        <v>2.421703187807424</v>
+        <v>2.251319320241265</v>
       </c>
       <c r="F17">
-        <v>10.10289414216493</v>
+        <v>9.240646480560571</v>
       </c>
       <c r="G17">
-        <v>0.0006944852374395349</v>
+        <v>0.0007365727197315347</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.07209670460556872</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>5.185056286172596</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.726650809474506</v>
       </c>
       <c r="D18">
-        <v>0.4788997599790434</v>
+        <v>0.4487610014477355</v>
       </c>
       <c r="E18">
-        <v>2.339843746202689</v>
+        <v>2.181622879665014</v>
       </c>
       <c r="F18">
-        <v>9.802041018714419</v>
+        <v>9.022458998402158</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257280441</v>
+        <v>0.00073930291269775</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.06609623648559992</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562121311</v>
+        <v>5.135317067602273</v>
       </c>
       <c r="C19">
-        <v>1.674689419313893</v>
+        <v>1.710653429367881</v>
       </c>
       <c r="D19">
-        <v>0.4740495448535285</v>
+        <v>0.4426506061768407</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>2.158014407021483</v>
       </c>
       <c r="F19">
-        <v>9.701283292199292</v>
+        <v>8.91504583724398</v>
       </c>
       <c r="G19">
-        <v>0.0006998598190865405</v>
+        <v>0.0007402889338675335</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0641311083381817</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428692</v>
+        <v>5.358010500210924</v>
       </c>
       <c r="C20">
-        <v>1.760186838715697</v>
+        <v>1.793579952620405</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601022</v>
+        <v>0.4608157066541025</v>
       </c>
       <c r="E20">
-        <v>2.437044104630658</v>
+        <v>2.264403402209751</v>
       </c>
       <c r="F20">
-        <v>10.15912097007671</v>
+        <v>9.292894382988294</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734403594</v>
+        <v>0.00073604560901952</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.07323795220582774</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364637</v>
+        <v>6.124926286120967</v>
       </c>
       <c r="C21">
-        <v>2.065688090290337</v>
+        <v>2.08106475893095</v>
       </c>
       <c r="D21">
-        <v>0.5751101848300664</v>
+        <v>0.5271695309270115</v>
       </c>
       <c r="E21">
-        <v>2.887646484235404</v>
+        <v>2.639462605677636</v>
       </c>
       <c r="F21">
-        <v>11.78802886964667</v>
+        <v>10.63992054292061</v>
       </c>
       <c r="G21">
-        <v>0.0006726251112156297</v>
+        <v>0.0007216177485528759</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1088832046929378</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886698745</v>
+        <v>6.644134750994795</v>
       </c>
       <c r="C22">
-        <v>2.283282165834066</v>
+        <v>2.274706323284192</v>
       </c>
       <c r="D22">
-        <v>0.6314726412728078</v>
+        <v>0.5780666464303295</v>
       </c>
       <c r="E22">
-        <v>3.214297175114268</v>
+        <v>2.901301670517995</v>
       </c>
       <c r="F22">
-        <v>12.94011826465407</v>
+        <v>11.62077555909281</v>
       </c>
       <c r="G22">
-        <v>0.0006582287118990811</v>
+        <v>0.0007119393212127286</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1368724214722663</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901463</v>
+        <v>6.366760024734219</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>2.164606438224268</v>
       </c>
       <c r="D23">
-        <v>0.600872616121336</v>
+        <v>0.5561523983407994</v>
       </c>
       <c r="E23">
-        <v>3.03637255775223</v>
+        <v>2.760388720415079</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>11.15521005009862</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291808603</v>
+        <v>0.000717006748239647</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1216098726377846</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224034</v>
+        <v>5.347511442783798</v>
       </c>
       <c r="C24">
-        <v>1.755432162945965</v>
+        <v>1.780342385520782</v>
       </c>
       <c r="D24">
-        <v>0.4948847683158704</v>
+        <v>0.4678247723078357</v>
       </c>
       <c r="E24">
-        <v>2.430101090143168</v>
+        <v>2.259135048769124</v>
       </c>
       <c r="F24">
-        <v>10.13367983991688</v>
+        <v>9.363188318859102</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912558396</v>
+        <v>0.0007361112994640591</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.07277123059315826</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.76892253653881</v>
+        <v>4.300581461062279</v>
       </c>
       <c r="C25">
-        <v>1.365482018976479</v>
+        <v>1.402540729416899</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678624</v>
+        <v>0.378207820045688</v>
       </c>
       <c r="E25">
-        <v>1.867542477264166</v>
+        <v>1.768823222887974</v>
       </c>
       <c r="F25">
-        <v>8.040232194133921</v>
+        <v>7.544210729642231</v>
       </c>
       <c r="G25">
-        <v>0.0007229166982805069</v>
+        <v>0.0007564881790588236</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03500885217573835</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.561199485164707</v>
+        <v>1.03870662259763</v>
       </c>
       <c r="C2">
-        <v>1.131335744603518</v>
+        <v>0.1005698810537581</v>
       </c>
       <c r="D2">
-        <v>0.3272058143757022</v>
+        <v>0.04470433944929653</v>
       </c>
       <c r="E2">
-        <v>1.436183048966086</v>
+        <v>0.04357560434474195</v>
       </c>
       <c r="F2">
-        <v>6.405297017943781</v>
+        <v>1.356726192630845</v>
       </c>
       <c r="G2">
-        <v>0.0007713180869450032</v>
+        <v>1.090334264353288</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01601131403344169</v>
+        <v>0.03148712518962604</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7731605086057556</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8378806489968795</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06760997928455126</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9695249532526589</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2102634802266437</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.071506588738714</v>
+        <v>0.9061340624123204</v>
       </c>
       <c r="C3">
-        <v>0.9646822993376247</v>
+        <v>0.08821733117036956</v>
       </c>
       <c r="D3">
-        <v>0.2866138001505192</v>
+        <v>0.0397377624895654</v>
       </c>
       <c r="E3">
-        <v>1.222027604918125</v>
+        <v>0.04177595703568926</v>
       </c>
       <c r="F3">
-        <v>5.578053483066554</v>
+        <v>1.318499581788402</v>
       </c>
       <c r="G3">
-        <v>0.0007816769345099788</v>
+        <v>1.059177875018349</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007348635646546864</v>
+        <v>0.03810478099778258</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7648727961346538</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8277793599572618</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06727295282057355</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8430345471709018</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1912141442336051</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.775483215346242</v>
+        <v>0.8248452903971213</v>
       </c>
       <c r="C4">
-        <v>0.8660607651034411</v>
+        <v>0.080765482027644</v>
       </c>
       <c r="D4">
-        <v>0.2618416486247384</v>
+        <v>0.03673775110507194</v>
       </c>
       <c r="E4">
-        <v>1.094832924222345</v>
+        <v>0.04069797091330329</v>
       </c>
       <c r="F4">
-        <v>5.076956079076723</v>
+        <v>1.295969797712274</v>
       </c>
       <c r="G4">
-        <v>0.0007881485695562582</v>
+        <v>1.040791458748856</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003726303407598497</v>
+        <v>0.04267279862679807</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7602580267589047</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.82195717096522</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06708393682050051</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7657295999099745</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.179812289410954</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.65570097568434</v>
+        <v>0.7914935220058794</v>
       </c>
       <c r="C5">
-        <v>0.8281275244993935</v>
+        <v>0.07797099107613548</v>
       </c>
       <c r="D5">
-        <v>0.2505602322928127</v>
+        <v>0.03559620595459734</v>
       </c>
       <c r="E5">
-        <v>1.04385587912536</v>
+        <v>0.04025457226414453</v>
       </c>
       <c r="F5">
-        <v>4.860248983856451</v>
+        <v>1.285704880592704</v>
       </c>
       <c r="G5">
-        <v>0.0007908441093387262</v>
+        <v>1.032164974233979</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002676820063274743</v>
+        <v>0.04476721408327178</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7578195949729434</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8187011216264608</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06696009439120409</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7345877577317594</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1754051944065651</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.635720242914886</v>
+        <v>0.7856569416677246</v>
       </c>
       <c r="C6">
-        <v>0.8236658989711998</v>
+        <v>0.07776958470805084</v>
       </c>
       <c r="D6">
-        <v>0.2472206728752013</v>
+        <v>0.03549209745576576</v>
       </c>
       <c r="E6">
-        <v>1.035392538823046</v>
+        <v>0.04016825479592256</v>
       </c>
       <c r="F6">
-        <v>4.80748441341953</v>
+        <v>1.282413106473825</v>
       </c>
       <c r="G6">
-        <v>0.0007913262357239685</v>
+        <v>1.029141339961555</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002591415817410514</v>
+        <v>0.04526418983673519</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7565995246469015</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8169752179567098</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06687720066373259</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7297671780294479</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1748845570654183</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.773436328899606</v>
+        <v>0.8235724863159817</v>
       </c>
       <c r="C7">
-        <v>0.8704354876643663</v>
+        <v>0.08144144086451632</v>
       </c>
       <c r="D7">
-        <v>0.2576467765303789</v>
+        <v>0.03695381663000319</v>
       </c>
       <c r="E7">
-        <v>1.0940015791695</v>
+        <v>0.04065616486229651</v>
       </c>
       <c r="F7">
-        <v>5.027677241279235</v>
+        <v>1.291461376565486</v>
       </c>
       <c r="G7">
-        <v>0.0007882737111831508</v>
+        <v>1.036301773813221</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003865628744913252</v>
+        <v>0.0430679874378832</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7579829276254344</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8186636900871136</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06691154330802185</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.766254913393027</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1803179329702687</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.390521120389167</v>
+        <v>0.9918548809792185</v>
       </c>
       <c r="C8">
-        <v>1.079460385854674</v>
+        <v>0.0972340980683839</v>
       </c>
       <c r="D8">
-        <v>0.3076638459239973</v>
+        <v>0.04328847505185252</v>
       </c>
       <c r="E8">
-        <v>1.361090099067027</v>
+        <v>0.04290165998784445</v>
       </c>
       <c r="F8">
-        <v>6.055556295509348</v>
+        <v>1.337579413676835</v>
       </c>
       <c r="G8">
-        <v>0.0007749873113326932</v>
+        <v>1.073661225203139</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01275081457719374</v>
+        <v>0.034097008677624</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7672533183220764</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8300374218355699</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06726563538128971</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9270804612926327</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2043807038187708</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.649221415064062</v>
+        <v>1.324721267603593</v>
       </c>
       <c r="C9">
-        <v>1.517294537216003</v>
+        <v>0.1281368429365557</v>
       </c>
       <c r="D9">
-        <v>0.4156362664667341</v>
+        <v>0.05571627989930761</v>
       </c>
       <c r="E9">
-        <v>1.929294387883985</v>
+        <v>0.04759438797811555</v>
       </c>
       <c r="F9">
-        <v>8.233950683435438</v>
+        <v>1.443810150741641</v>
       </c>
       <c r="G9">
-        <v>0.0007494635396381293</v>
+        <v>1.161111321039741</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.04612328964684753</v>
+        <v>0.02016189172708049</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.793383743406352</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8613352545461623</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06840856080814817</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.244253689846715</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2530735433234099</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.620342429586174</v>
+        <v>1.570384483935328</v>
       </c>
       <c r="C10">
-        <v>1.875937575691751</v>
+        <v>0.1522109858878054</v>
       </c>
       <c r="D10">
-        <v>0.496226653050428</v>
+        <v>0.06526310595753415</v>
       </c>
       <c r="E10">
-        <v>2.390749484177718</v>
+        <v>0.05117669079665355</v>
       </c>
       <c r="F10">
-        <v>9.895080511001879</v>
+        <v>1.525399086924139</v>
       </c>
       <c r="G10">
-        <v>0.0007308558390643419</v>
+        <v>1.227850991991204</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.08474693637203234</v>
+        <v>0.01294733728518604</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8142325940003445</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8850118755014122</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06926018274080548</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.480824550346767</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2909354927188446</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.075347438737538</v>
+        <v>1.681184307651165</v>
       </c>
       <c r="C11">
-        <v>2.057794817274782</v>
+        <v>0.1646623631435062</v>
       </c>
       <c r="D11">
-        <v>0.526657997182042</v>
+        <v>0.07006705352864628</v>
       </c>
       <c r="E11">
-        <v>2.614664196702321</v>
+        <v>0.05278287473955068</v>
       </c>
       <c r="F11">
-        <v>10.59481539722356</v>
+        <v>1.556888335880615</v>
       </c>
       <c r="G11">
-        <v>0.0007224776666660105</v>
+        <v>1.252340682967144</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1064030167786774</v>
+        <v>0.01083510900157236</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8208143557558714</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8911521449574735</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06939824279035989</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.590885397506383</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3095474547645694</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.251323327833745</v>
+        <v>1.724000664306431</v>
       </c>
       <c r="C12">
-        <v>2.124516395065143</v>
+        <v>0.168777643391266</v>
       </c>
       <c r="D12">
-        <v>0.5423630871074749</v>
+        <v>0.07169343150499685</v>
       </c>
       <c r="E12">
-        <v>2.702485837156217</v>
+        <v>0.05342870531099031</v>
       </c>
       <c r="F12">
-        <v>10.90976758267954</v>
+        <v>1.572791491275353</v>
       </c>
       <c r="G12">
-        <v>0.0007192029320520992</v>
+        <v>1.265557930841112</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1154365237719013</v>
+        <v>0.00988311329723679</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8253167870134206</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8963356460502609</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06959856584568769</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.631889482672051</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3161716953413531</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.213504236398308</v>
+        <v>1.714931553318678</v>
       </c>
       <c r="C13">
-        <v>2.109231376710341</v>
+        <v>0.1677586015719044</v>
       </c>
       <c r="D13">
-        <v>0.5397710041791299</v>
+        <v>0.07130136092037276</v>
       </c>
       <c r="E13">
-        <v>2.683520384021634</v>
+        <v>0.05329581199168842</v>
       </c>
       <c r="F13">
-        <v>10.85077299957851</v>
+        <v>1.570110778591314</v>
       </c>
       <c r="G13">
-        <v>0.0007198924825897583</v>
+        <v>1.263457253136252</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1134751792139381</v>
+        <v>0.01002974179316585</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8247248406773764</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.895770900428623</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06958429774574526</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.622886248797528</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.314642072549276</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.089854279141548</v>
+        <v>1.684771250992924</v>
       </c>
       <c r="C14">
-        <v>2.062892181775283</v>
+        <v>0.1649445061023442</v>
       </c>
       <c r="D14">
-        <v>0.5282837942756657</v>
+        <v>0.07018308804175888</v>
       </c>
       <c r="E14">
-        <v>2.621863914992659</v>
+        <v>0.05283863213061579</v>
       </c>
       <c r="F14">
-        <v>10.62445796973242</v>
+        <v>1.558512639591711</v>
       </c>
       <c r="G14">
-        <v>0.0007222016240711947</v>
+        <v>1.253744713265348</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1071376617148729</v>
+        <v>0.01073144830426553</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8213451563069896</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8918128320824081</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06942698769653788</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.594185466993252</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3100486115831274</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.014094897484256</v>
+        <v>1.666002583881436</v>
       </c>
       <c r="C15">
-        <v>2.036405615086665</v>
+        <v>0.1634841454522444</v>
       </c>
       <c r="D15">
-        <v>0.5197193431364724</v>
+        <v>0.06958093412026045</v>
       </c>
       <c r="E15">
-        <v>2.58432297646803</v>
+        <v>0.052546652881027</v>
       </c>
       <c r="F15">
-        <v>10.46883035729957</v>
+        <v>1.549952820661645</v>
       </c>
       <c r="G15">
-        <v>0.0007236457858287432</v>
+        <v>1.246335437924174</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.103330548558306</v>
+        <v>0.01128599021183163</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8185355877772054</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8883064466600743</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06927392405026822</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.576951233947057</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3074408434828371</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.587877026056503</v>
+        <v>1.560586383910646</v>
       </c>
       <c r="C16">
-        <v>1.878088532930235</v>
+        <v>0.1535595260627076</v>
       </c>
       <c r="D16">
-        <v>0.4812138137317845</v>
+        <v>0.06563380832474053</v>
       </c>
       <c r="E16">
-        <v>2.375354256294059</v>
+        <v>0.05096582485116663</v>
       </c>
       <c r="F16">
-        <v>9.701852043685335</v>
+        <v>1.510833554109013</v>
       </c>
       <c r="G16">
-        <v>0.0007316739736751248</v>
+        <v>1.213736108750766</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08321890174699842</v>
+        <v>0.01399414892015738</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8074522288425356</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8753774881186018</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06876847868199221</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.476398021950558</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2913818817816463</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.33071736015421</v>
+        <v>1.496072706874429</v>
       </c>
       <c r="C17">
-        <v>1.784001158371666</v>
+        <v>0.1475366018081559</v>
       </c>
       <c r="D17">
-        <v>0.4580626408969124</v>
+        <v>0.06322928761833424</v>
       </c>
       <c r="E17">
-        <v>2.251319320241265</v>
+        <v>0.0500062473554781</v>
       </c>
       <c r="F17">
-        <v>9.240646480560571</v>
+        <v>1.487268214648793</v>
       </c>
       <c r="G17">
-        <v>0.0007365727197315347</v>
+        <v>1.194107652395147</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.07209670460556872</v>
+        <v>0.0158458841906528</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8008570610178225</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8676361279084119</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06846620409006476</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.414943846910688</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2816438383816973</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.185056286172596</v>
+        <v>1.459789980343061</v>
       </c>
       <c r="C18">
-        <v>1.726650809474506</v>
+        <v>0.14343997447844</v>
       </c>
       <c r="D18">
-        <v>0.4487610014477355</v>
+        <v>0.06164505882208715</v>
       </c>
       <c r="E18">
-        <v>2.181622879665014</v>
+        <v>0.04949016418558116</v>
       </c>
       <c r="F18">
-        <v>9.022458998402158</v>
+        <v>1.477656592167989</v>
       </c>
       <c r="G18">
-        <v>0.00073930291269775</v>
+        <v>1.186735992118116</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06609623648559992</v>
+        <v>0.01666522953453775</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7990609539731537</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8660425513362355</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06844113239214167</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.378842892024664</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2755815425005608</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.135317067602273</v>
+        <v>1.446918467124789</v>
       </c>
       <c r="C19">
-        <v>1.710653429367881</v>
+        <v>0.1425615006176599</v>
       </c>
       <c r="D19">
-        <v>0.4426506061768407</v>
+        <v>0.06126943373968885</v>
       </c>
       <c r="E19">
-        <v>2.158014407021483</v>
+        <v>0.04929120374775664</v>
       </c>
       <c r="F19">
-        <v>8.91504583724398</v>
+        <v>1.471504428054644</v>
       </c>
       <c r="G19">
-        <v>0.0007402889338675335</v>
+        <v>1.181339502327205</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0641311083381817</v>
+        <v>0.01719233349515203</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7969801384937227</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8633601886232114</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06832048004845603</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.367275408886115</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2739222627994025</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.358010500210924</v>
+        <v>1.502995493923635</v>
       </c>
       <c r="C20">
-        <v>1.793579952620405</v>
+        <v>0.1481238923699664</v>
       </c>
       <c r="D20">
-        <v>0.4608157066541025</v>
+        <v>0.06346835365832248</v>
       </c>
       <c r="E20">
-        <v>2.264403402209751</v>
+        <v>0.05011054639297008</v>
       </c>
       <c r="F20">
-        <v>9.292894382988294</v>
+        <v>1.490058032980031</v>
       </c>
       <c r="G20">
-        <v>0.00073604560901952</v>
+        <v>1.196480577699162</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.07323795220582774</v>
+        <v>0.01561701859293496</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8017024645444621</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.868672051155734</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06850953360548218</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.42141202572347</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2826369259267523</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.124926286120967</v>
+        <v>1.69275172275016</v>
       </c>
       <c r="C21">
-        <v>2.08106475893095</v>
+        <v>0.1665035886788786</v>
       </c>
       <c r="D21">
-        <v>0.5271695309270115</v>
+        <v>0.07074286652789397</v>
       </c>
       <c r="E21">
-        <v>2.639462605677636</v>
+        <v>0.05293657814409691</v>
       </c>
       <c r="F21">
-        <v>10.63992054292061</v>
+        <v>1.557684096730924</v>
       </c>
       <c r="G21">
-        <v>0.0007216177485528759</v>
+        <v>1.252364454825241</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1088832046929378</v>
+        <v>0.0108356606539548</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8201913092784849</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8898598403244549</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06931047271246271</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.603539302730695</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3119554604457591</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.644134750994795</v>
+        <v>1.818452589071683</v>
       </c>
       <c r="C22">
-        <v>2.274706323284192</v>
+        <v>0.1778181329958386</v>
       </c>
       <c r="D22">
-        <v>0.5780666464303295</v>
+        <v>0.07526133189590212</v>
       </c>
       <c r="E22">
-        <v>2.901301670517995</v>
+        <v>0.05486430312029356</v>
       </c>
       <c r="F22">
-        <v>11.62077555909281</v>
+        <v>1.608745277973469</v>
       </c>
       <c r="G22">
-        <v>0.0007119393212127286</v>
+        <v>1.295538438045511</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1368724214722663</v>
+        <v>0.007956544520742348</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8356960154757047</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9083134635349026</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07006669597514303</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.722228667139262</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3307993941624545</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.366760024734219</v>
+        <v>1.752364455797533</v>
       </c>
       <c r="C23">
-        <v>2.164606438224268</v>
+        <v>0.170872738413081</v>
       </c>
       <c r="D23">
-        <v>0.5561523983407994</v>
+        <v>0.07256512556497796</v>
       </c>
       <c r="E23">
-        <v>2.760388720415079</v>
+        <v>0.05387579502938067</v>
       </c>
       <c r="F23">
-        <v>11.15521005009862</v>
+        <v>1.58645027613845</v>
       </c>
       <c r="G23">
-        <v>0.000717006748239647</v>
+        <v>1.277472427132906</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1216098726377846</v>
+        <v>0.009073446207194635</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8299391804437306</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9021578156062375</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06985678786664096</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.657681204638749</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3200300822091151</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.347511442783798</v>
+        <v>1.501503419189987</v>
       </c>
       <c r="C24">
-        <v>1.780342385520782</v>
+        <v>0.1464749658996851</v>
       </c>
       <c r="D24">
-        <v>0.4678247723078357</v>
+        <v>0.06292221472094894</v>
       </c>
       <c r="E24">
-        <v>2.259135048769124</v>
+        <v>0.05013160712837816</v>
       </c>
       <c r="F24">
-        <v>9.363188318859102</v>
+        <v>1.496824562675741</v>
       </c>
       <c r="G24">
-        <v>0.0007361112994640591</v>
+        <v>1.203434473812493</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.07277123059315826</v>
+        <v>0.01510045091966106</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8053970322495587</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8741212448263767</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06879930428408443</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.416725450522961</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2811277240044205</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.300581461062279</v>
+        <v>1.23289742883324</v>
       </c>
       <c r="C25">
-        <v>1.402540729416899</v>
+        <v>0.1209437842112067</v>
       </c>
       <c r="D25">
-        <v>0.378207820045688</v>
+        <v>0.05272747088713459</v>
       </c>
       <c r="E25">
-        <v>1.768823222887974</v>
+        <v>0.04623349867360638</v>
       </c>
       <c r="F25">
-        <v>7.544210729642231</v>
+        <v>1.406298760831106</v>
       </c>
       <c r="G25">
-        <v>0.0007564881790588236</v>
+        <v>1.128855481143006</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03500885217573835</v>
+        <v>0.02402661446872045</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7818654015633228</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8466971654974316</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06777980217629676</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.159694507752562</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2406307789391349</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.03870662259763</v>
+        <v>1.015234239277333</v>
       </c>
       <c r="C2">
-        <v>0.1005698810537581</v>
+        <v>0.1148746675771264</v>
       </c>
       <c r="D2">
-        <v>0.04470433944929653</v>
+        <v>0.05309285985883605</v>
       </c>
       <c r="E2">
-        <v>0.04357560434474195</v>
+        <v>0.04129980730855465</v>
       </c>
       <c r="F2">
-        <v>1.356726192630845</v>
+        <v>1.166771073728853</v>
       </c>
       <c r="G2">
-        <v>1.090334264353288</v>
+        <v>0.9085870393521276</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03148712518962604</v>
+        <v>0.02234728776338102</v>
       </c>
       <c r="J2">
-        <v>0.7731605086057556</v>
+        <v>0.6626287678286218</v>
       </c>
       <c r="K2">
-        <v>0.8378806489968795</v>
+        <v>0.6833449971244789</v>
       </c>
       <c r="L2">
-        <v>0.06760997928455126</v>
+        <v>0.2689680374574301</v>
       </c>
       <c r="M2">
-        <v>0.9695249532526589</v>
+        <v>0.243175374512159</v>
       </c>
       <c r="N2">
-        <v>0.2102634802266437</v>
+        <v>0.05743336095767759</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.006718547477163</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2331877000279974</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9061340624123204</v>
+        <v>0.8855672037440456</v>
       </c>
       <c r="C3">
-        <v>0.08821733117036956</v>
+        <v>0.09849822423370824</v>
       </c>
       <c r="D3">
-        <v>0.0397377624895654</v>
+        <v>0.04693083934177622</v>
       </c>
       <c r="E3">
-        <v>0.04177595703568926</v>
+        <v>0.03962316885089301</v>
       </c>
       <c r="F3">
-        <v>1.318499581788402</v>
+        <v>1.143094960407645</v>
       </c>
       <c r="G3">
-        <v>1.059177875018349</v>
+        <v>0.8965352648562543</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03810478099778258</v>
+        <v>0.02713735821704866</v>
       </c>
       <c r="J3">
-        <v>0.7648727961346538</v>
+        <v>0.6545475521382116</v>
       </c>
       <c r="K3">
-        <v>0.8277793599572618</v>
+        <v>0.6827858287709176</v>
       </c>
       <c r="L3">
-        <v>0.06727295282057355</v>
+        <v>0.2722806224249368</v>
       </c>
       <c r="M3">
-        <v>0.8430345471709018</v>
+        <v>0.241254066326583</v>
       </c>
       <c r="N3">
-        <v>0.1912141442336051</v>
+        <v>0.05753864595295255</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8743091884951184</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2114595733064419</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8248452903971213</v>
+        <v>0.8058684644881566</v>
       </c>
       <c r="C4">
-        <v>0.080765482027644</v>
+        <v>0.08866118179400928</v>
       </c>
       <c r="D4">
-        <v>0.03673775110507194</v>
+        <v>0.04321366748477828</v>
       </c>
       <c r="E4">
-        <v>0.04069797091330329</v>
+        <v>0.03861697946982723</v>
       </c>
       <c r="F4">
-        <v>1.295969797712274</v>
+        <v>1.129216442560313</v>
       </c>
       <c r="G4">
-        <v>1.040791458748856</v>
+        <v>0.8898751619997682</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04267279862679807</v>
+        <v>0.03046817608036267</v>
       </c>
       <c r="J4">
-        <v>0.7602580267589047</v>
+        <v>0.649647899477074</v>
       </c>
       <c r="K4">
-        <v>0.82195717096522</v>
+        <v>0.6826568021206292</v>
       </c>
       <c r="L4">
-        <v>0.06708393682050051</v>
+        <v>0.2742203601490409</v>
       </c>
       <c r="M4">
-        <v>0.7657295999099745</v>
+        <v>0.2408686366709993</v>
       </c>
       <c r="N4">
-        <v>0.179812289410954</v>
+        <v>0.05761326942686118</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7932962564480306</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1984485432419731</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7914935220058794</v>
+        <v>0.7731343641225408</v>
       </c>
       <c r="C5">
-        <v>0.07797099107613548</v>
+        <v>0.08493593698483437</v>
       </c>
       <c r="D5">
-        <v>0.03559620595459734</v>
+        <v>0.0417840693994691</v>
       </c>
       <c r="E5">
-        <v>0.04025457226414453</v>
+        <v>0.03820308738364631</v>
       </c>
       <c r="F5">
-        <v>1.285704880592704</v>
+        <v>1.122597428165811</v>
       </c>
       <c r="G5">
-        <v>1.032164974233979</v>
+        <v>0.8862469754623277</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04476721408327178</v>
+        <v>0.03203792719855514</v>
       </c>
       <c r="J5">
-        <v>0.7578195949729434</v>
+        <v>0.6470805641835824</v>
       </c>
       <c r="K5">
-        <v>0.8187011216264608</v>
+        <v>0.6818617939963296</v>
       </c>
       <c r="L5">
-        <v>0.06696009439120409</v>
+        <v>0.2746298795693534</v>
       </c>
       <c r="M5">
-        <v>0.7345877577317594</v>
+        <v>0.2406735100300139</v>
       </c>
       <c r="N5">
-        <v>0.1754051944065651</v>
+        <v>0.05760467707751182</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7606093829530209</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.193388920659217</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7856569416677246</v>
+        <v>0.7674170432748326</v>
       </c>
       <c r="C6">
-        <v>0.07776958470805084</v>
+        <v>0.08460601488467034</v>
       </c>
       <c r="D6">
-        <v>0.03549209745576576</v>
+        <v>0.04163240257017264</v>
       </c>
       <c r="E6">
-        <v>0.04016825479592256</v>
+        <v>0.0381230169164315</v>
       </c>
       <c r="F6">
-        <v>1.282413106473825</v>
+        <v>1.120138393766567</v>
       </c>
       <c r="G6">
-        <v>1.029141339961555</v>
+        <v>0.8843235265635059</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04526418983673519</v>
+        <v>0.03245667899688343</v>
       </c>
       <c r="J6">
-        <v>0.7565995246469015</v>
+        <v>0.6459405411707024</v>
       </c>
       <c r="K6">
-        <v>0.8169752179567098</v>
+        <v>0.6807643458194796</v>
       </c>
       <c r="L6">
-        <v>0.06687720066373259</v>
+        <v>0.2742614947411504</v>
       </c>
       <c r="M6">
-        <v>0.7297671780294479</v>
+        <v>0.2403646283338787</v>
       </c>
       <c r="N6">
-        <v>0.1748845570654183</v>
+        <v>0.05755276634481632</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.755509644100357</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1927534311039523</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8235724863159817</v>
+        <v>0.8049089811067347</v>
       </c>
       <c r="C7">
-        <v>0.08144144086451632</v>
+        <v>0.08911486480054975</v>
       </c>
       <c r="D7">
-        <v>0.03695381663000319</v>
+        <v>0.04363713215017384</v>
       </c>
       <c r="E7">
-        <v>0.04065616486229651</v>
+        <v>0.03862065989972407</v>
       </c>
       <c r="F7">
-        <v>1.291461376565486</v>
+        <v>1.123254634261258</v>
       </c>
       <c r="G7">
-        <v>1.036301773813221</v>
+        <v>0.8887269607309776</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0430679874378832</v>
+        <v>0.03090411520610381</v>
       </c>
       <c r="J7">
-        <v>0.7579829276254344</v>
+        <v>0.6415679480750498</v>
       </c>
       <c r="K7">
-        <v>0.8186636900871136</v>
+        <v>0.6787736443519812</v>
       </c>
       <c r="L7">
-        <v>0.06691154330802185</v>
+        <v>0.2725192194655826</v>
       </c>
       <c r="M7">
-        <v>0.766254913393027</v>
+        <v>0.23967938124526</v>
       </c>
       <c r="N7">
-        <v>0.1803179329702687</v>
+        <v>0.05745171803948779</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7934146821661159</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.198925019216766</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9918548809792185</v>
+        <v>0.9703333174028614</v>
       </c>
       <c r="C8">
-        <v>0.0972340980683839</v>
+        <v>0.109289313964112</v>
       </c>
       <c r="D8">
-        <v>0.04328847505185252</v>
+        <v>0.05197290445318714</v>
       </c>
       <c r="E8">
-        <v>0.04290165998784445</v>
+        <v>0.04081188262682289</v>
       </c>
       <c r="F8">
-        <v>1.337579413676835</v>
+        <v>1.146541505472577</v>
       </c>
       <c r="G8">
-        <v>1.073661225203139</v>
+        <v>0.9079969997514752</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.034097008677624</v>
+        <v>0.02444378231418298</v>
       </c>
       <c r="J8">
-        <v>0.7672533183220764</v>
+        <v>0.6374051763982322</v>
       </c>
       <c r="K8">
-        <v>0.8300374218355699</v>
+        <v>0.6756466662813594</v>
       </c>
       <c r="L8">
-        <v>0.06726563538128971</v>
+        <v>0.2670388919617857</v>
       </c>
       <c r="M8">
-        <v>0.9270804612926327</v>
+        <v>0.2398612484077525</v>
       </c>
       <c r="N8">
-        <v>0.2043807038187708</v>
+        <v>0.05721268735626062</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9610640852320387</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2263397518399302</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.324721267603593</v>
+        <v>1.294905808664225</v>
       </c>
       <c r="C9">
-        <v>0.1281368429365557</v>
+        <v>0.150356936340529</v>
       </c>
       <c r="D9">
-        <v>0.05571627989930761</v>
+        <v>0.0676881486006522</v>
       </c>
       <c r="E9">
-        <v>0.04759438797811555</v>
+        <v>0.0452092079225519</v>
       </c>
       <c r="F9">
-        <v>1.443810150741641</v>
+        <v>1.212190476463945</v>
       </c>
       <c r="G9">
-        <v>1.161111321039741</v>
+        <v>0.9493089349881103</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02016189172708049</v>
+        <v>0.01434379509463923</v>
       </c>
       <c r="J9">
-        <v>0.793383743406352</v>
+        <v>0.6549031390022009</v>
       </c>
       <c r="K9">
-        <v>0.8613352545461623</v>
+        <v>0.6804495586718602</v>
       </c>
       <c r="L9">
-        <v>0.06840856080814817</v>
+        <v>0.2594226560173105</v>
       </c>
       <c r="M9">
-        <v>1.244253689846715</v>
+        <v>0.2495600357474359</v>
       </c>
       <c r="N9">
-        <v>0.2530735433234099</v>
+        <v>0.05715148357868927</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.292209073024111</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2819216112408043</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.570384483935328</v>
+        <v>1.534752866486372</v>
       </c>
       <c r="C10">
-        <v>0.1522109858878054</v>
+        <v>0.1806585106934904</v>
       </c>
       <c r="D10">
-        <v>0.06526310595753415</v>
+        <v>0.08103881787352663</v>
       </c>
       <c r="E10">
-        <v>0.05117669079665355</v>
+        <v>0.04880075726839372</v>
       </c>
       <c r="F10">
-        <v>1.525399086924139</v>
+        <v>1.250555560552414</v>
       </c>
       <c r="G10">
-        <v>1.227850991991204</v>
+        <v>0.9978696063650432</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01294733728518604</v>
+        <v>0.009349514374700441</v>
       </c>
       <c r="J10">
-        <v>0.8142325940003445</v>
+        <v>0.6341099179853984</v>
       </c>
       <c r="K10">
-        <v>0.8850118755014122</v>
+        <v>0.6772972941194126</v>
       </c>
       <c r="L10">
-        <v>0.06926018274080548</v>
+        <v>0.250591297550848</v>
       </c>
       <c r="M10">
-        <v>1.480824550346767</v>
+        <v>0.2575665298428298</v>
       </c>
       <c r="N10">
-        <v>0.2909354927188446</v>
+        <v>0.05697161076437141</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.53636477219149</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3249601668427857</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.681184307651165</v>
+        <v>1.645303425142771</v>
       </c>
       <c r="C11">
-        <v>0.1646623631435062</v>
+        <v>0.1930817467301864</v>
       </c>
       <c r="D11">
-        <v>0.07006705352864628</v>
+        <v>0.08997034410951699</v>
       </c>
       <c r="E11">
-        <v>0.05278287473955068</v>
+        <v>0.05085607383729496</v>
       </c>
       <c r="F11">
-        <v>1.556888335880615</v>
+        <v>1.242098294336429</v>
       </c>
       <c r="G11">
-        <v>1.252340682967144</v>
+        <v>1.043362228509835</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01083510900157236</v>
+        <v>0.0082171634609427</v>
       </c>
       <c r="J11">
-        <v>0.8208143557558714</v>
+        <v>0.5690916254668679</v>
       </c>
       <c r="K11">
-        <v>0.8911521449574735</v>
+        <v>0.6605593008016157</v>
       </c>
       <c r="L11">
-        <v>0.06939824279035989</v>
+        <v>0.2412225506755838</v>
       </c>
       <c r="M11">
-        <v>1.590885397506383</v>
+        <v>0.2556724474024605</v>
       </c>
       <c r="N11">
-        <v>0.3095474547645694</v>
+        <v>0.0564837386131174</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.645920424785004</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3458446969592757</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.724000664306431</v>
+        <v>1.688255804541853</v>
       </c>
       <c r="C12">
-        <v>0.168777643391266</v>
+        <v>0.1967312480762615</v>
       </c>
       <c r="D12">
-        <v>0.07169343150499685</v>
+        <v>0.0934847640252201</v>
       </c>
       <c r="E12">
-        <v>0.05342870531099031</v>
+        <v>0.05172835255967989</v>
       </c>
       <c r="F12">
-        <v>1.572791491275353</v>
+        <v>1.239483125737365</v>
       </c>
       <c r="G12">
-        <v>1.265557930841112</v>
+        <v>1.067882892713527</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00988311329723679</v>
+        <v>0.007575297422707905</v>
       </c>
       <c r="J12">
-        <v>0.8253167870134206</v>
+        <v>0.54142973277024</v>
       </c>
       <c r="K12">
-        <v>0.8963356460502609</v>
+        <v>0.6549544372338474</v>
       </c>
       <c r="L12">
-        <v>0.06959856584568769</v>
+        <v>0.2379858702742261</v>
       </c>
       <c r="M12">
-        <v>1.631889482672051</v>
+        <v>0.2552766182094608</v>
       </c>
       <c r="N12">
-        <v>0.3161716953413531</v>
+        <v>0.05638631434353769</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.686261328871581</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3533307155330192</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.714931553318678</v>
+        <v>1.679131241526164</v>
       </c>
       <c r="C13">
-        <v>0.1677586015719044</v>
+        <v>0.1958163879387769</v>
       </c>
       <c r="D13">
-        <v>0.07130136092037276</v>
+        <v>0.0926683437429574</v>
       </c>
       <c r="E13">
-        <v>0.05329581199168842</v>
+        <v>0.05154329750494568</v>
       </c>
       <c r="F13">
-        <v>1.570110778591314</v>
+        <v>1.240762178273272</v>
       </c>
       <c r="G13">
-        <v>1.263457253136252</v>
+        <v>1.063037406625341</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01002974179316585</v>
+        <v>0.007648314059013117</v>
       </c>
       <c r="J13">
-        <v>0.8247248406773764</v>
+        <v>0.5477915980965804</v>
       </c>
       <c r="K13">
-        <v>0.895770900428623</v>
+        <v>0.6566324446042842</v>
       </c>
       <c r="L13">
-        <v>0.06958429774574526</v>
+        <v>0.2388417175703026</v>
       </c>
       <c r="M13">
-        <v>1.622886248797528</v>
+        <v>0.2555523521277117</v>
       </c>
       <c r="N13">
-        <v>0.314642072549276</v>
+        <v>0.05643031924854469</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.677433684795204</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3516185863138332</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.684771250992924</v>
+        <v>1.648890175715792</v>
       </c>
       <c r="C14">
-        <v>0.1649445061023442</v>
+        <v>0.1933274391170698</v>
       </c>
       <c r="D14">
-        <v>0.07018308804175888</v>
+        <v>0.09023395225177921</v>
       </c>
       <c r="E14">
-        <v>0.05283863213061579</v>
+        <v>0.05092895443032575</v>
       </c>
       <c r="F14">
-        <v>1.558512639591711</v>
+        <v>1.242191410279588</v>
       </c>
       <c r="G14">
-        <v>1.253744713265348</v>
+        <v>1.045558851957338</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01073144830426553</v>
+        <v>0.008136115210753303</v>
       </c>
       <c r="J14">
-        <v>0.8213451563069896</v>
+        <v>0.5670003471284986</v>
       </c>
       <c r="K14">
-        <v>0.8918128320824081</v>
+        <v>0.6603011290862071</v>
       </c>
       <c r="L14">
-        <v>0.06942698769653788</v>
+        <v>0.2410251246878445</v>
       </c>
       <c r="M14">
-        <v>1.594185466993252</v>
+        <v>0.2557214562840748</v>
       </c>
       <c r="N14">
-        <v>0.3100486115831274</v>
+        <v>0.05648555954141443</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.649180393340259</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3464180787831737</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.666002583881436</v>
+        <v>1.630135672664352</v>
       </c>
       <c r="C15">
-        <v>0.1634841454522444</v>
+        <v>0.1920440911076469</v>
       </c>
       <c r="D15">
-        <v>0.06958093412026045</v>
+        <v>0.08887370706077036</v>
       </c>
       <c r="E15">
-        <v>0.052546652881027</v>
+        <v>0.05054997122472571</v>
       </c>
       <c r="F15">
-        <v>1.549952820661645</v>
+        <v>1.241539297140761</v>
       </c>
       <c r="G15">
-        <v>1.246335437924174</v>
+        <v>1.034188666230463</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01128599021183163</v>
+        <v>0.00857253457324525</v>
       </c>
       <c r="J15">
-        <v>0.8185355877772054</v>
+        <v>0.5777312540987367</v>
       </c>
       <c r="K15">
-        <v>0.8883064466600743</v>
+        <v>0.6615511448858484</v>
       </c>
       <c r="L15">
-        <v>0.06927392405026822</v>
+        <v>0.2420238018821372</v>
       </c>
       <c r="M15">
-        <v>1.576951233947057</v>
+        <v>0.2554273259912776</v>
       </c>
       <c r="N15">
-        <v>0.3074408434828371</v>
+        <v>0.05647281809299898</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.63213381146349</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3434318700648902</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.560586383910646</v>
+        <v>1.525214437307397</v>
       </c>
       <c r="C16">
-        <v>0.1535595260627076</v>
+        <v>0.1822097374789564</v>
       </c>
       <c r="D16">
-        <v>0.06563380832474053</v>
+        <v>0.08120304796754141</v>
       </c>
       <c r="E16">
-        <v>0.05096582485116663</v>
+        <v>0.04857951544235917</v>
       </c>
       <c r="F16">
-        <v>1.510833554109013</v>
+        <v>1.240492220744073</v>
       </c>
       <c r="G16">
-        <v>1.213736108750766</v>
+        <v>0.9851620718319083</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01399414892015738</v>
+        <v>0.01045250026539524</v>
       </c>
       <c r="J16">
-        <v>0.8074522288425356</v>
+        <v>0.6327706498787791</v>
       </c>
       <c r="K16">
-        <v>0.8753774881186018</v>
+        <v>0.6711559568251388</v>
       </c>
       <c r="L16">
-        <v>0.06876847868199221</v>
+        <v>0.2486477521475088</v>
       </c>
       <c r="M16">
-        <v>1.476398021950558</v>
+        <v>0.2548372860491064</v>
       </c>
       <c r="N16">
-        <v>0.2913818817816463</v>
+        <v>0.05662952009059197</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.531752191463283</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.3252143569220465</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.496072706874429</v>
+        <v>1.461488407288442</v>
       </c>
       <c r="C17">
-        <v>0.1475366018081559</v>
+        <v>0.1755899320090322</v>
       </c>
       <c r="D17">
-        <v>0.06322928761833424</v>
+        <v>0.0770503241112479</v>
       </c>
       <c r="E17">
-        <v>0.0500062473554781</v>
+        <v>0.04747854675495233</v>
       </c>
       <c r="F17">
-        <v>1.487268214648793</v>
+        <v>1.235584761512385</v>
       </c>
       <c r="G17">
-        <v>1.194107652395147</v>
+        <v>0.9618367855165388</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0158458841906528</v>
+        <v>0.01175981527108139</v>
       </c>
       <c r="J17">
-        <v>0.8008570610178225</v>
+        <v>0.6564186231373554</v>
       </c>
       <c r="K17">
-        <v>0.8676361279084119</v>
+        <v>0.6746570098330835</v>
       </c>
       <c r="L17">
-        <v>0.06846620409006476</v>
+        <v>0.2519020155045624</v>
       </c>
       <c r="M17">
-        <v>1.414943846910688</v>
+        <v>0.253641271151583</v>
       </c>
       <c r="N17">
-        <v>0.2816438383816973</v>
+        <v>0.05668535428718613</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.469537102394071</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3141366304731861</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.459789980343061</v>
+        <v>1.425766330737019</v>
       </c>
       <c r="C18">
-        <v>0.14343997447844</v>
+        <v>0.170840045330948</v>
       </c>
       <c r="D18">
-        <v>0.06164505882208715</v>
+        <v>0.07463948526895336</v>
       </c>
       <c r="E18">
-        <v>0.04949016418558116</v>
+        <v>0.04691108942852118</v>
       </c>
       <c r="F18">
-        <v>1.477656592167989</v>
+        <v>1.234388239489149</v>
       </c>
       <c r="G18">
-        <v>1.186735992118116</v>
+        <v>0.9537545864973538</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01666522953453775</v>
+        <v>0.01221135571586895</v>
       </c>
       <c r="J18">
-        <v>0.7990609539731537</v>
+        <v>0.667460302073124</v>
       </c>
       <c r="K18">
-        <v>0.8660425513362355</v>
+        <v>0.6779738390005576</v>
       </c>
       <c r="L18">
-        <v>0.06844113239214167</v>
+        <v>0.2542521998585059</v>
       </c>
       <c r="M18">
-        <v>1.378842892024664</v>
+        <v>0.253505099061794</v>
       </c>
       <c r="N18">
-        <v>0.2755815425005608</v>
+        <v>0.05681579733126441</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.43274315262363</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3073127121719779</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.446918467124789</v>
+        <v>1.413159305766072</v>
       </c>
       <c r="C19">
-        <v>0.1425615006176599</v>
+        <v>0.1697631661918138</v>
       </c>
       <c r="D19">
-        <v>0.06126943373968885</v>
+        <v>0.07401683971982465</v>
       </c>
       <c r="E19">
-        <v>0.04929120374775664</v>
+        <v>0.04670294379029016</v>
       </c>
       <c r="F19">
-        <v>1.471504428054644</v>
+        <v>1.231305238855654</v>
       </c>
       <c r="G19">
-        <v>1.181339502327205</v>
+        <v>0.9490186773122389</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01719233349515203</v>
+        <v>0.01264542219952247</v>
       </c>
       <c r="J19">
-        <v>0.7969801384937227</v>
+        <v>0.6692572235180023</v>
       </c>
       <c r="K19">
-        <v>0.8633601886232114</v>
+        <v>0.6772846767441081</v>
       </c>
       <c r="L19">
-        <v>0.06832048004845603</v>
+        <v>0.2543912435307547</v>
       </c>
       <c r="M19">
-        <v>1.367275408886115</v>
+        <v>0.2527678609194126</v>
       </c>
       <c r="N19">
-        <v>0.2739222627994025</v>
+        <v>0.05677044047948598</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.420856007457445</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3053848496390543</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.502995493923635</v>
+        <v>1.468304949300517</v>
       </c>
       <c r="C20">
-        <v>0.1481238923699664</v>
+        <v>0.1762586873382617</v>
       </c>
       <c r="D20">
-        <v>0.06346835365832248</v>
+        <v>0.07745596032858515</v>
       </c>
       <c r="E20">
-        <v>0.05011054639297008</v>
+        <v>0.04759411337540342</v>
       </c>
       <c r="F20">
-        <v>1.490058032980031</v>
+        <v>1.236510906475047</v>
       </c>
       <c r="G20">
-        <v>1.196480577699162</v>
+        <v>0.9643225659102654</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01561701859293496</v>
+        <v>0.01158655166600298</v>
       </c>
       <c r="J20">
-        <v>0.8017024645444621</v>
+        <v>0.6544430528165037</v>
       </c>
       <c r="K20">
-        <v>0.868672051155734</v>
+        <v>0.6745423304103042</v>
       </c>
       <c r="L20">
-        <v>0.06850953360548218</v>
+        <v>0.2516476308735882</v>
       </c>
       <c r="M20">
-        <v>1.42141202572347</v>
+        <v>0.2538641794178993</v>
       </c>
       <c r="N20">
-        <v>0.2826369259267523</v>
+        <v>0.05668974566891194</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.476121398367297</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3152738254322003</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.69275172275016</v>
+        <v>1.657874494449118</v>
       </c>
       <c r="C21">
-        <v>0.1665035886788786</v>
+        <v>0.1937924198911531</v>
       </c>
       <c r="D21">
-        <v>0.07074286652789397</v>
+        <v>0.09202423523107939</v>
       </c>
       <c r="E21">
-        <v>0.05293657814409691</v>
+        <v>0.05123282994112621</v>
       </c>
       <c r="F21">
-        <v>1.557684096730924</v>
+        <v>1.23100056264596</v>
       </c>
       <c r="G21">
-        <v>1.252364454825241</v>
+        <v>1.057083336726052</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0108356606539548</v>
+        <v>0.008375511424935311</v>
       </c>
       <c r="J21">
-        <v>0.8201913092784849</v>
+        <v>0.5426333445827112</v>
       </c>
       <c r="K21">
-        <v>0.8898598403244549</v>
+        <v>0.6528399201975859</v>
       </c>
       <c r="L21">
-        <v>0.06931047271246271</v>
+        <v>0.2381933168615227</v>
       </c>
       <c r="M21">
-        <v>1.603539302730695</v>
+        <v>0.2530766705135576</v>
       </c>
       <c r="N21">
-        <v>0.3119554604457591</v>
+        <v>0.05627179200674348</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.657069963293281</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3484572813441957</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.818452589071683</v>
+        <v>1.783559122019994</v>
       </c>
       <c r="C22">
-        <v>0.1778181329958386</v>
+        <v>0.2040396806324907</v>
       </c>
       <c r="D22">
-        <v>0.07526133189590212</v>
+        <v>0.1018568447689034</v>
       </c>
       <c r="E22">
-        <v>0.05486430312029356</v>
+        <v>0.0537782814883272</v>
       </c>
       <c r="F22">
-        <v>1.608745277973469</v>
+        <v>1.229605977394726</v>
       </c>
       <c r="G22">
-        <v>1.295538438045511</v>
+        <v>1.130774584500486</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007956544520742348</v>
+        <v>0.006271189096707985</v>
       </c>
       <c r="J22">
-        <v>0.8356960154757047</v>
+        <v>0.4756869141007627</v>
       </c>
       <c r="K22">
-        <v>0.9083134635349026</v>
+        <v>0.6404452185389786</v>
       </c>
       <c r="L22">
-        <v>0.07006669597514303</v>
+        <v>0.2302353595230144</v>
       </c>
       <c r="M22">
-        <v>1.722228667139262</v>
+        <v>0.2535527018633204</v>
       </c>
       <c r="N22">
-        <v>0.3307993941624545</v>
+        <v>0.05614540082159536</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.774171306894033</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3698302158748277</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.752364455797533</v>
+        <v>1.716736202214065</v>
       </c>
       <c r="C23">
-        <v>0.170872738413081</v>
+        <v>0.1983625801284745</v>
       </c>
       <c r="D23">
-        <v>0.07256512556497796</v>
+        <v>0.09566292277762045</v>
       </c>
       <c r="E23">
-        <v>0.05387579502938067</v>
+        <v>0.05233665997491066</v>
       </c>
       <c r="F23">
-        <v>1.58645027613845</v>
+        <v>1.239737251784064</v>
       </c>
       <c r="G23">
-        <v>1.277472427132906</v>
+        <v>1.087809028862978</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.009073446207194635</v>
+        <v>0.006923613039536924</v>
       </c>
       <c r="J23">
-        <v>0.8299391804437306</v>
+        <v>0.5236714180179973</v>
       </c>
       <c r="K23">
-        <v>0.9021578156062375</v>
+        <v>0.6527416373731469</v>
       </c>
       <c r="L23">
-        <v>0.06985678786664096</v>
+        <v>0.2363879532913913</v>
       </c>
       <c r="M23">
-        <v>1.657681204638749</v>
+        <v>0.2556064168006671</v>
       </c>
       <c r="N23">
-        <v>0.3200300822091151</v>
+        <v>0.05641329608301504</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.711516223322889</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3577528809977224</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.501503419189987</v>
+        <v>1.466731298980619</v>
       </c>
       <c r="C24">
-        <v>0.1464749658996851</v>
+        <v>0.1744066966981421</v>
       </c>
       <c r="D24">
-        <v>0.06292221472094894</v>
+        <v>0.07682484235724019</v>
       </c>
       <c r="E24">
-        <v>0.05013160712837816</v>
+        <v>0.04760267854620004</v>
       </c>
       <c r="F24">
-        <v>1.496824562675741</v>
+        <v>1.24272912295551</v>
       </c>
       <c r="G24">
-        <v>1.203434473812493</v>
+        <v>0.9697196923014815</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01510045091966106</v>
+        <v>0.010959432641787</v>
       </c>
       <c r="J24">
-        <v>0.8053970322495587</v>
+        <v>0.6586089562450184</v>
       </c>
       <c r="K24">
-        <v>0.8741212448263767</v>
+        <v>0.6791562569350234</v>
       </c>
       <c r="L24">
-        <v>0.06879930428408443</v>
+        <v>0.253402095901059</v>
       </c>
       <c r="M24">
-        <v>1.416725450522961</v>
+        <v>0.2555407610934992</v>
       </c>
       <c r="N24">
-        <v>0.2811277240044205</v>
+        <v>0.05692638272406469</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.471479310176761</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3137270116218076</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.23289742883324</v>
+        <v>1.205285354304522</v>
       </c>
       <c r="C25">
-        <v>0.1209437842112067</v>
+        <v>0.1409052164478197</v>
       </c>
       <c r="D25">
-        <v>0.05272747088713459</v>
+        <v>0.06349223019763173</v>
       </c>
       <c r="E25">
-        <v>0.04623349867360638</v>
+        <v>0.0438795652578321</v>
       </c>
       <c r="F25">
-        <v>1.406298760831106</v>
+        <v>1.190216835863453</v>
       </c>
       <c r="G25">
-        <v>1.128855481143006</v>
+        <v>0.9273023536608775</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02402661446872045</v>
+        <v>0.01732687590054027</v>
       </c>
       <c r="J25">
-        <v>0.7818654015633228</v>
+        <v>0.6551999457412592</v>
       </c>
       <c r="K25">
-        <v>0.8466971654974316</v>
+        <v>0.6760892808179477</v>
       </c>
       <c r="L25">
-        <v>0.06777980217629676</v>
+        <v>0.2604671389274351</v>
       </c>
       <c r="M25">
-        <v>1.159694507752562</v>
+        <v>0.2451984017237052</v>
       </c>
       <c r="N25">
-        <v>0.2406307789391349</v>
+        <v>0.05695338253764426</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.204352901175611</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.267564774769113</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
